--- a/驾车和公交样本.xlsx
+++ b/驾车和公交样本.xlsx
@@ -46,10 +46,10 @@
     <t>耗时差(分钟)</t>
   </si>
   <si>
-    <t>114.017307,</t>
-  </si>
-  <si>
-    <t>22.726424}</t>
+    <t>114.017xxx</t>
+  </si>
+  <si>
+    <t>22.726xxx</t>
   </si>
   <si>
     <t>22.641568,</t>
@@ -3691,8 +3691,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4020,9 +4023,9 @@
   <dimension ref="G1:P516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O512" sqref="O512"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21631,13 +21634,13 @@
       </c>
     </row>
     <row r="516" spans="11:13">
-      <c r="K516" t="s">
+      <c r="K516" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="L516">
         <v>0</v>
       </c>
-      <c r="M516">
+      <c r="M516" s="2">
         <f>AVERAGE(P2:P500)</f>
         <v>-42.1740241448692</v>
       </c>
